--- a/data/scheduling_DNN/predict/0.9/result27.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result27.xlsx
@@ -570,10 +570,10 @@
         <v>1.336845874786377</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.4008574783802032</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7528003454208374</v>
+        <v>0.8760743141174316</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9662530422210693</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.8877480626106262</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3531334400177002</v>
+        <v>0.006163031794130802</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8801548480987549</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.8666189908981323</v>
       </c>
       <c r="W4" t="n">
-        <v>0.05136152356863022</v>
+        <v>0.0001832194247981533</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.93402099609375</v>
       </c>
       <c r="V5" t="n">
-        <v>0.800457239151001</v>
+        <v>0.5147775411605835</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01783927716314793</v>
+        <v>0.1757650673389435</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.866873025894165</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.8884443044662476</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1627174317836761</v>
+        <v>0.0004653200448956341</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8660178184509277</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.5308778285980225</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0451592281460762</v>
+        <v>0.1123188138008118</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8763430118560791</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.8739532828330994</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1225846856832504</v>
+        <v>5.710804998670937e-06</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.9141051769256592</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.399387001991272</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1044873222708702</v>
+        <v>0.2649348080158234</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8647379875183105</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.8734927177429199</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2430490851402283</v>
+        <v>7.664530130568892e-05</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8567459583282471</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.5163283348083496</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1928973793983459</v>
+        <v>0.1158841550350189</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8776390552520752</v>
       </c>
       <c r="V12" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.5181427597999573</v>
       </c>
       <c r="W12" t="n">
-        <v>0.05031197145581245</v>
+        <v>0.1292375922203064</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9471619129180908</v>
       </c>
       <c r="V13" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.8639911413192749</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0008362143998965621</v>
+        <v>0.006917377468198538</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9729969501495361</v>
       </c>
       <c r="V14" t="n">
-        <v>0.490370512008667</v>
+        <v>0.4004682600498199</v>
       </c>
       <c r="W14" t="n">
-        <v>0.2329282760620117</v>
+        <v>0.3277891278266907</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.91621994972229</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.5235939621925354</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1115895584225655</v>
+        <v>0.1541551649570465</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8982129096984863</v>
       </c>
       <c r="V16" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.5239793658256531</v>
       </c>
       <c r="W16" t="n">
-        <v>0.005985155701637268</v>
+        <v>0.1400507390499115</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.88407301902771</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.8883916139602661</v>
       </c>
       <c r="W17" t="n">
-        <v>0.09471482038497925</v>
+        <v>1.865026206360199e-05</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8764221668243408</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.5282030701637268</v>
       </c>
       <c r="W18" t="n">
-        <v>0.2762990593910217</v>
+        <v>0.1212565377354622</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.946699857711792</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.5653303861618042</v>
       </c>
       <c r="W19" t="n">
-        <v>0.06444341689348221</v>
+        <v>0.1454426795244217</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9155209064483643</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.3990544080734253</v>
       </c>
       <c r="W20" t="n">
-        <v>0.06848787516355515</v>
+        <v>0.2667376399040222</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8904790878295898</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.4015340209007263</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1337106078863144</v>
+        <v>0.2390672713518143</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5245001316070557</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.8780562281608582</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0163952074944973</v>
+        <v>0.1250019073486328</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5269629955291748</v>
       </c>
       <c r="V23" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.5260106325149536</v>
       </c>
       <c r="W23" t="n">
-        <v>0.07541876286268234</v>
+        <v>9.069952966456185e-07</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.520482063293457</v>
       </c>
       <c r="V24" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.8686296343803406</v>
       </c>
       <c r="W24" t="n">
-        <v>0.09835905581712723</v>
+        <v>0.1212067306041718</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5938429832458496</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.517052173614502</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01082020998001099</v>
+        <v>0.005896828602999449</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5185608863830566</v>
       </c>
       <c r="V26" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.8706026673316956</v>
       </c>
       <c r="W26" t="n">
-        <v>4.108507710043341e-05</v>
+        <v>0.1239334121346474</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5147209167480469</v>
       </c>
       <c r="V27" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.5218592286109924</v>
       </c>
       <c r="W27" t="n">
-        <v>0.08142055571079254</v>
+        <v>5.095549568068236e-05</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5164079666137695</v>
       </c>
       <c r="V28" t="n">
-        <v>0.576347291469574</v>
+        <v>0.4004872143268585</v>
       </c>
       <c r="W28" t="n">
-        <v>0.003592722583562136</v>
+        <v>0.01343762036412954</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.533146858215332</v>
       </c>
       <c r="V29" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.8909256458282471</v>
       </c>
       <c r="W29" t="n">
-        <v>0.09034727513790131</v>
+        <v>0.1280056536197662</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5294210910797119</v>
       </c>
       <c r="V30" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.4004543423652649</v>
       </c>
       <c r="W30" t="n">
-        <v>0.03153016790747643</v>
+        <v>0.01663242280483246</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5398600101470947</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.8681036233901978</v>
       </c>
       <c r="W31" t="n">
-        <v>0.002230093581601977</v>
+        <v>0.1077438667416573</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5248239040374756</v>
       </c>
       <c r="V32" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.8705956935882568</v>
       </c>
       <c r="W32" t="n">
-        <v>0.07684122025966644</v>
+        <v>0.1195581331849098</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5155198574066162</v>
       </c>
       <c r="V33" t="n">
-        <v>0.490329772233963</v>
+        <v>0.8682878613471985</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0006345403962768614</v>
+        <v>0.124445267021656</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5288600921630859</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.8656970858573914</v>
       </c>
       <c r="W34" t="n">
-        <v>0.00423057284206152</v>
+        <v>0.1134591624140739</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5154280662536621</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.8959726691246033</v>
       </c>
       <c r="W35" t="n">
-        <v>8.017711661523208e-05</v>
+        <v>0.1448141932487488</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5712330341339111</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.8774582147598267</v>
       </c>
       <c r="W36" t="n">
-        <v>0.006493663880974054</v>
+        <v>0.09377386420965195</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.51521897315979</v>
       </c>
       <c r="V37" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.3999466300010681</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01873194426298141</v>
+        <v>0.01328771281987429</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.511552095413208</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.8711915016174316</v>
       </c>
       <c r="W38" t="n">
-        <v>0.001117117237299681</v>
+        <v>0.1293404996395111</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.514030933380127</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.8604047894477844</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0005575782852247357</v>
+        <v>0.1199748516082764</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5096900463104248</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.4010137915611267</v>
       </c>
       <c r="W40" t="n">
-        <v>0.008475461043417454</v>
+        <v>0.01181052811443806</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5171051025390625</v>
       </c>
       <c r="V41" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.8769553899765015</v>
       </c>
       <c r="W41" t="n">
-        <v>0.08180422335863113</v>
+        <v>0.1294922232627869</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.416593074798584</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.874681293964386</v>
       </c>
       <c r="W42" t="n">
-        <v>0.07623356580734253</v>
+        <v>0.2098448127508163</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4091649055480957</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.4005063772201538</v>
       </c>
       <c r="W43" t="n">
-        <v>0.01345734018832445</v>
+        <v>7.497011392842978e-05</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3865730762481689</v>
       </c>
       <c r="V44" t="n">
-        <v>0.838257908821106</v>
+        <v>0.8739529848098755</v>
       </c>
       <c r="W44" t="n">
-        <v>0.2040191888809204</v>
+        <v>0.2375391721725464</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.4037470817565918</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.5253885984420776</v>
       </c>
       <c r="W45" t="n">
-        <v>0.01455987337976694</v>
+        <v>0.01479665841907263</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.4149599075317383</v>
       </c>
       <c r="V46" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.3992310762405396</v>
       </c>
       <c r="W46" t="n">
-        <v>0.02602757513523102</v>
+        <v>0.0002473961212672293</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.410552978515625</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.4015578925609589</v>
       </c>
       <c r="W47" t="n">
-        <v>0.008923943154513836</v>
+        <v>8.09115736046806e-05</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4101219177246094</v>
       </c>
       <c r="V48" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.4008368253707886</v>
       </c>
       <c r="W48" t="n">
-        <v>0.0087776780128479</v>
+        <v>8.621293818578124e-05</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3939008712768555</v>
       </c>
       <c r="V49" t="n">
-        <v>0.654336154460907</v>
+        <v>0.52531898021698</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0678265392780304</v>
+        <v>0.01727071963250637</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3892829418182373</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.3990577459335327</v>
       </c>
       <c r="W50" t="n">
-        <v>0.01030378788709641</v>
+        <v>9.554679854772985e-05</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3935251235961914</v>
       </c>
       <c r="V51" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.5247188806533813</v>
       </c>
       <c r="W51" t="n">
-        <v>0.3388064503669739</v>
+        <v>0.01721180230379105</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.385037899017334</v>
       </c>
       <c r="V52" t="n">
-        <v>0.524641752243042</v>
+        <v>0.8678947687149048</v>
       </c>
       <c r="W52" t="n">
-        <v>0.01948923617601395</v>
+        <v>0.2331507503986359</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3866498470306396</v>
       </c>
       <c r="V53" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.5183173418045044</v>
       </c>
       <c r="W53" t="n">
-        <v>0.001288698520511389</v>
+        <v>0.01733632944524288</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.4439878463745117</v>
       </c>
       <c r="V54" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.4004991352558136</v>
       </c>
       <c r="W54" t="n">
-        <v>0.005167970433831215</v>
+        <v>0.001891267951577902</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3893239498138428</v>
       </c>
       <c r="V55" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.4004956781864166</v>
       </c>
       <c r="W55" t="n">
-        <v>0.0001311897067353129</v>
+        <v>0.0001248075132025406</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3930799961090088</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.8616272807121277</v>
       </c>
       <c r="W56" t="n">
-        <v>0.009512224234640598</v>
+        <v>0.2195365577936172</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3875339031219482</v>
       </c>
       <c r="V57" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.5060628652572632</v>
       </c>
       <c r="W57" t="n">
-        <v>0.001352332183159888</v>
+        <v>0.0140491146594286</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.386138916015625</v>
       </c>
       <c r="V58" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.4017239511013031</v>
       </c>
       <c r="W58" t="n">
-        <v>0.006034847814589739</v>
+        <v>0.0002428933221381158</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3882899284362793</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.5199782252311707</v>
       </c>
       <c r="W59" t="n">
-        <v>0.0186336487531662</v>
+        <v>0.01734180748462677</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.4076018333435059</v>
       </c>
       <c r="V60" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.40044966340065</v>
       </c>
       <c r="W60" t="n">
-        <v>0.06035425513982773</v>
+        <v>5.115353633300401e-05</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3860490322113037</v>
       </c>
       <c r="V61" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.3990437686443329</v>
       </c>
       <c r="W61" t="n">
-        <v>0.04051759839057922</v>
+        <v>0.0001688631746219471</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8775758743286133</v>
       </c>
       <c r="V62" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.869063138961792</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1384796053171158</v>
+        <v>7.246666064020246e-05</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8603148460388184</v>
       </c>
       <c r="V63" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.4010079205036163</v>
       </c>
       <c r="W63" t="n">
-        <v>0.2596645653247833</v>
+        <v>0.2109628468751907</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.886483907699585</v>
       </c>
       <c r="V64" t="n">
-        <v>0.371780127286911</v>
+        <v>0.4016693830490112</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2649199366569519</v>
+        <v>0.2350451201200485</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.9121291637420654</v>
       </c>
       <c r="V65" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.3992368280887604</v>
       </c>
       <c r="W65" t="n">
-        <v>0.006108359433710575</v>
+        <v>0.2630585730075836</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>1.017941951751709</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.3990577757358551</v>
       </c>
       <c r="W66" t="n">
-        <v>0.3603774309158325</v>
+        <v>0.3830176591873169</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.9620909690856934</v>
       </c>
       <c r="V67" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.3990333676338196</v>
       </c>
       <c r="W67" t="n">
-        <v>0.3736942410469055</v>
+        <v>0.3170338571071625</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9142699241638184</v>
       </c>
       <c r="V68" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.5161334872245789</v>
       </c>
       <c r="W68" t="n">
-        <v>0.2049842327833176</v>
+        <v>0.1585126221179962</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8610610961914062</v>
       </c>
       <c r="V69" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.8743496537208557</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1965931951999664</v>
+        <v>0.0001765857596183196</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8601651191711426</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.3999331295490265</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1126167699694633</v>
+        <v>0.2118134796619415</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8625369071960449</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.5088812112808228</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1980689764022827</v>
+        <v>0.1250723451375961</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.9096221923828125</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.4000299572944641</v>
       </c>
       <c r="W72" t="n">
-        <v>0.2420558333396912</v>
+        <v>0.2596842348575592</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8609669208526611</v>
       </c>
       <c r="V73" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.4004616737365723</v>
       </c>
       <c r="W73" t="n">
-        <v>0.003392403945326805</v>
+        <v>0.2120650857686996</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8632349967956543</v>
       </c>
       <c r="V74" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.4015563726425171</v>
       </c>
       <c r="W74" t="n">
-        <v>0.02408445067703724</v>
+        <v>0.2131471484899521</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8557939529418945</v>
       </c>
       <c r="V75" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.8828277587890625</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1095647662878036</v>
+        <v>0.0007308266358450055</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.9050168991088867</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.3992285430431366</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1602569073438644</v>
+        <v>0.2558218240737915</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.948369026184082</v>
       </c>
       <c r="V77" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.3990581333637238</v>
       </c>
       <c r="W77" t="n">
-        <v>0.08691437542438507</v>
+        <v>0.3017424941062927</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8685581684112549</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.8871272802352905</v>
       </c>
       <c r="W78" t="n">
-        <v>0.08545681089162827</v>
+        <v>0.0003448119095992297</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8597679138183594</v>
       </c>
       <c r="V79" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.5221245288848877</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1589285880327225</v>
+        <v>0.1140030547976494</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.9119391441345215</v>
       </c>
       <c r="V80" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.8748519420623779</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1782545000314713</v>
+        <v>0.001375460531562567</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.875295877456665</v>
       </c>
       <c r="V81" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.8669871687889099</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1228421330451965</v>
+        <v>6.903464236529544e-05</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5519709587097168</v>
       </c>
       <c r="V82" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.4005320072174072</v>
       </c>
       <c r="W82" t="n">
-        <v>0.04049017280340195</v>
+        <v>0.02293375693261623</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5459668636322021</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.5207502245903015</v>
       </c>
       <c r="W83" t="n">
-        <v>0.006739201955497265</v>
+        <v>0.0006358788814395666</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5143020153045654</v>
       </c>
       <c r="V84" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.529207170009613</v>
       </c>
       <c r="W84" t="n">
-        <v>0.002792042912915349</v>
+        <v>0.0002221636386821046</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5661840438842773</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.4015704989433289</v>
       </c>
       <c r="W85" t="n">
-        <v>0.005686408840119839</v>
+        <v>0.02709762006998062</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5154368877410889</v>
       </c>
       <c r="V86" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.3992403447628021</v>
       </c>
       <c r="W86" t="n">
-        <v>0.002949238754808903</v>
+        <v>0.01350163668394089</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5159511566162109</v>
       </c>
       <c r="V87" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.8777687549591064</v>
       </c>
       <c r="W87" t="n">
-        <v>0.03123733960092068</v>
+        <v>0.1309119760990143</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5139241218566895</v>
       </c>
       <c r="V88" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.8627832531929016</v>
       </c>
       <c r="W88" t="n">
-        <v>0.0831918865442276</v>
+        <v>0.1217026934027672</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5185980796813965</v>
       </c>
       <c r="V89" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.4010288417339325</v>
       </c>
       <c r="W89" t="n">
-        <v>0.0002056129014817998</v>
+        <v>0.0138225257396698</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5111751556396484</v>
       </c>
       <c r="V90" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.5196637511253357</v>
       </c>
       <c r="W90" t="n">
-        <v>0.01479009725153446</v>
+        <v>7.205625297501683e-05</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5272061824798584</v>
       </c>
       <c r="V91" t="n">
-        <v>0.505433976650238</v>
+        <v>0.3992169499397278</v>
       </c>
       <c r="W91" t="n">
-        <v>0.0004740289587061852</v>
+        <v>0.01638124324381351</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5197830200195312</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.4004930257797241</v>
       </c>
       <c r="W92" t="n">
-        <v>0.003169429954141378</v>
+        <v>0.01423010230064392</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5253548622131348</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.3999400734901428</v>
       </c>
       <c r="W93" t="n">
-        <v>0.001227888744324446</v>
+        <v>0.01572886854410172</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5138218402862549</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.400844007730484</v>
       </c>
       <c r="W94" t="n">
-        <v>0.004733879119157791</v>
+        <v>0.01276399102061987</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5149509906768799</v>
       </c>
       <c r="V95" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.8865270614624023</v>
       </c>
       <c r="W95" t="n">
-        <v>0.01857266016304493</v>
+        <v>0.1380687803030014</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5679571628570557</v>
       </c>
       <c r="V96" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.4004986584186554</v>
       </c>
       <c r="W96" t="n">
-        <v>0.007231289986521006</v>
+        <v>0.02804234996438026</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5176000595092773</v>
       </c>
       <c r="V97" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.874987006187439</v>
       </c>
       <c r="W97" t="n">
-        <v>0.0184360072016716</v>
+        <v>0.1277254223823547</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5191850662231445</v>
       </c>
       <c r="V98" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.5182801485061646</v>
       </c>
       <c r="W98" t="n">
-        <v>0.1038565188646317</v>
+        <v>8.188760602934053e-07</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5165419578552246</v>
       </c>
       <c r="V99" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.4010288417339325</v>
       </c>
       <c r="W99" t="n">
-        <v>0.0006550297257490456</v>
+        <v>0.01334328018128872</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.516232967376709</v>
       </c>
       <c r="V100" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.4008747935295105</v>
       </c>
       <c r="W100" t="n">
-        <v>0.000669739383738488</v>
+        <v>0.01330750808119774</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5128209590911865</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.8860597014427185</v>
       </c>
       <c r="W101" t="n">
-        <v>0.009054570458829403</v>
+        <v>0.1393071562051773</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.3957960605621338</v>
       </c>
       <c r="V102" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.5663654208183289</v>
       </c>
       <c r="W102" t="n">
-        <v>0.1672250628471375</v>
+        <v>0.0290939062833786</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4019348621368408</v>
       </c>
       <c r="V103" t="n">
-        <v>0.975210964679718</v>
+        <v>0.400465339422226</v>
       </c>
       <c r="W103" t="n">
-        <v>0.3286454975605011</v>
+        <v>2.159496943932027e-06</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4170160293579102</v>
       </c>
       <c r="V104" t="n">
-        <v>0.490907609462738</v>
+        <v>0.874653160572052</v>
       </c>
       <c r="W104" t="n">
-        <v>0.005459965672343969</v>
+        <v>0.2094317376613617</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4046769142150879</v>
       </c>
       <c r="V105" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.3999019265174866</v>
       </c>
       <c r="W105" t="n">
-        <v>0.002790723461657763</v>
+        <v>2.280050830449909e-05</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3871309757232666</v>
       </c>
       <c r="V106" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.3999359011650085</v>
       </c>
       <c r="W106" t="n">
-        <v>0.1715036332607269</v>
+        <v>0.0001639661204535514</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3858580589294434</v>
       </c>
       <c r="V107" t="n">
-        <v>0.503772497177124</v>
+        <v>0.5187897086143494</v>
       </c>
       <c r="W107" t="n">
-        <v>0.01390381436794996</v>
+        <v>0.01767082326114178</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3886368274688721</v>
       </c>
       <c r="V108" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.8755378127098083</v>
       </c>
       <c r="W108" t="n">
-        <v>0.001435129437595606</v>
+        <v>0.2370725721120834</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3902909755706787</v>
       </c>
       <c r="V109" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.4005059599876404</v>
       </c>
       <c r="W109" t="n">
-        <v>0.01314081251621246</v>
+        <v>0.0001043459051288664</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3967969417572021</v>
       </c>
       <c r="V110" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.3990636169910431</v>
       </c>
       <c r="W110" t="n">
-        <v>0.3349298536777496</v>
+        <v>5.137816515343729e-06</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3925771713256836</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.4004826545715332</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01771292090415955</v>
+        <v>6.24966633040458e-05</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4073779582977295</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.8835009932518005</v>
       </c>
       <c r="W112" t="n">
-        <v>0.006946577224880457</v>
+        <v>0.2266931384801865</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3933038711547852</v>
       </c>
       <c r="V113" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.8909077644348145</v>
       </c>
       <c r="W113" t="n">
-        <v>0.004969495814293623</v>
+        <v>0.2476096302270889</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.4415280818939209</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.5667778253555298</v>
       </c>
       <c r="W114" t="n">
-        <v>0.004015815909951925</v>
+        <v>0.01568749733269215</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3913650512695312</v>
       </c>
       <c r="V115" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.5160885453224182</v>
       </c>
       <c r="W115" t="n">
-        <v>0.03971618786454201</v>
+        <v>0.01555594988167286</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3902349472045898</v>
       </c>
       <c r="V116" t="n">
-        <v>0.708076536655426</v>
+        <v>0.4004822075366974</v>
       </c>
       <c r="W116" t="n">
-        <v>0.1010232791304588</v>
+        <v>0.0001050063438015059</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3876869678497314</v>
       </c>
       <c r="V117" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.8827592134475708</v>
       </c>
       <c r="W117" t="n">
-        <v>0.04216315597295761</v>
+        <v>0.2450965344905853</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.3969278335571289</v>
       </c>
       <c r="V118" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.5230072736740112</v>
       </c>
       <c r="W118" t="n">
-        <v>0.0006253683823160827</v>
+        <v>0.015896026045084</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3907389640808105</v>
       </c>
       <c r="V119" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.8885713815689087</v>
       </c>
       <c r="W119" t="n">
-        <v>0.0015970419626683</v>
+        <v>0.2478371113538742</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4608781337738037</v>
       </c>
       <c r="V120" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.5094794631004333</v>
       </c>
       <c r="W120" t="n">
-        <v>4.219043034936476e-07</v>
+        <v>0.002362089231610298</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3917598724365234</v>
       </c>
       <c r="V121" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.4015723764896393</v>
       </c>
       <c r="W121" t="n">
-        <v>0.1992973685264587</v>
+        <v>9.628523548599333e-05</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8694329261779785</v>
       </c>
       <c r="V122" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.4015316367149353</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1187079772353172</v>
+        <v>0.2189316153526306</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9332039356231689</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.400677889585495</v>
       </c>
       <c r="W123" t="n">
-        <v>0.07845209538936615</v>
+        <v>0.2835839688777924</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8862729072570801</v>
       </c>
       <c r="V124" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.8722875118255615</v>
       </c>
       <c r="W124" t="n">
-        <v>0.007978243753314018</v>
+        <v>0.0001955912885023281</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8854210376739502</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.4004806280136108</v>
       </c>
       <c r="W125" t="n">
-        <v>0.03473402559757233</v>
+        <v>0.2351672053337097</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.9433610439300537</v>
       </c>
       <c r="V126" t="n">
-        <v>0.417632520198822</v>
+        <v>0.4000369310379028</v>
       </c>
       <c r="W126" t="n">
-        <v>0.2763904929161072</v>
+        <v>0.2952010929584503</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.9158749580383301</v>
       </c>
       <c r="V127" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.8590711951255798</v>
       </c>
       <c r="W127" t="n">
-        <v>0.04980399087071419</v>
+        <v>0.00322666740976274</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.924774169921875</v>
       </c>
       <c r="V128" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.3990318477153778</v>
       </c>
       <c r="W128" t="n">
-        <v>0.305546909570694</v>
+        <v>0.2764049470424652</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8985629081726074</v>
       </c>
       <c r="V129" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.3998998403549194</v>
       </c>
       <c r="W129" t="n">
-        <v>0.005930067971348763</v>
+        <v>0.2486648559570312</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9081180095672607</v>
       </c>
       <c r="V130" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.5224979519844055</v>
       </c>
       <c r="W130" t="n">
-        <v>0.2882035970687866</v>
+        <v>0.1487028300762177</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8986530303955078</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.5186448097229004</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1893735229969025</v>
+        <v>0.1444062441587448</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.9525179862976074</v>
       </c>
       <c r="V132" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.8662263154983521</v>
       </c>
       <c r="W132" t="n">
-        <v>0.2862303853034973</v>
+        <v>0.007446252275258303</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8971390724182129</v>
       </c>
       <c r="V133" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.5161426663398743</v>
       </c>
       <c r="W133" t="n">
-        <v>0.2758251428604126</v>
+        <v>0.1451582610607147</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8590140342712402</v>
       </c>
       <c r="V134" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.5251942873001099</v>
       </c>
       <c r="W134" t="n">
-        <v>0.01349741872400045</v>
+        <v>0.1114356219768524</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8811190128326416</v>
       </c>
       <c r="V135" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.8696916699409485</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1425139456987381</v>
+        <v>0.0001305841724388301</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.9183058738708496</v>
       </c>
       <c r="V136" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.8711097836494446</v>
       </c>
       <c r="W136" t="n">
-        <v>0.06972230970859528</v>
+        <v>0.00222747097723186</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8861439228057861</v>
       </c>
       <c r="V137" t="n">
-        <v>0.802345335483551</v>
+        <v>0.5164879560470581</v>
       </c>
       <c r="W137" t="n">
-        <v>0.007022203411906958</v>
+        <v>0.1366455405950546</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8654730319976807</v>
       </c>
       <c r="V138" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.8888685703277588</v>
       </c>
       <c r="W138" t="n">
-        <v>0.02477350644767284</v>
+        <v>0.0005473511992022395</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8683140277862549</v>
       </c>
       <c r="V139" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.4010424315929413</v>
       </c>
       <c r="W139" t="n">
-        <v>0.08533018082380295</v>
+        <v>0.2183427512645721</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.9110348224639893</v>
       </c>
       <c r="V140" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.5178132057189941</v>
       </c>
       <c r="W140" t="n">
-        <v>0.1647643893957138</v>
+        <v>0.1546232402324677</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8654930591583252</v>
       </c>
       <c r="V141" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.8627077341079712</v>
       </c>
       <c r="W141" t="n">
-        <v>0.2373057901859283</v>
+        <v>7.758035280858167e-06</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5283851623535156</v>
       </c>
       <c r="V142" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.4000324606895447</v>
       </c>
       <c r="W142" t="n">
-        <v>0.09533099830150604</v>
+        <v>0.01647441647946835</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5162608623504639</v>
       </c>
       <c r="V143" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.8633530735969543</v>
       </c>
       <c r="W143" t="n">
-        <v>0.0001246617321157828</v>
+        <v>0.1204730048775673</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5152502059936523</v>
       </c>
       <c r="V144" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.8801540732383728</v>
       </c>
       <c r="W144" t="n">
-        <v>0.08134889602661133</v>
+        <v>0.1331548392772675</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5679008960723877</v>
       </c>
       <c r="V145" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.875580370426178</v>
       </c>
       <c r="W145" t="n">
-        <v>0.007398424204438925</v>
+        <v>0.09466665983200073</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5219681262969971</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.3990462720394135</v>
       </c>
       <c r="W146" t="n">
-        <v>0.0009693747851997614</v>
+        <v>0.0151097821071744</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5263879299163818</v>
       </c>
       <c r="V147" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.8753937482833862</v>
       </c>
       <c r="W147" t="n">
-        <v>0.002424289239570498</v>
+        <v>0.1218050643801689</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5181560516357422</v>
       </c>
       <c r="V148" t="n">
-        <v>0.417653352022171</v>
+        <v>0.4015015363693237</v>
       </c>
       <c r="W148" t="n">
-        <v>0.01010079309344292</v>
+        <v>0.01360827591270208</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5164768695831299</v>
       </c>
       <c r="V149" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.8693380355834961</v>
       </c>
       <c r="W149" t="n">
-        <v>0.08202306181192398</v>
+        <v>0.1245110034942627</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5436279773712158</v>
       </c>
       <c r="V150" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.8706580400466919</v>
       </c>
       <c r="W150" t="n">
-        <v>0.02949417568743229</v>
+        <v>0.106948658823967</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5168299674987793</v>
       </c>
       <c r="V151" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.5453716516494751</v>
       </c>
       <c r="W151" t="n">
-        <v>0.08283252269029617</v>
+        <v>0.0008146277396008372</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5204119682312012</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.4015020430088043</v>
       </c>
       <c r="W152" t="n">
-        <v>0.0008732139831408858</v>
+        <v>0.0141395702958107</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5157630443572998</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.5179852247238159</v>
       </c>
       <c r="W153" t="n">
-        <v>0.002168504288420081</v>
+        <v>4.938085567118833e-06</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.512343168258667</v>
       </c>
       <c r="V154" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.4015661776065826</v>
       </c>
       <c r="W154" t="n">
-        <v>0.02015400305390358</v>
+        <v>0.01227154210209846</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5198540687561035</v>
       </c>
       <c r="V155" t="n">
-        <v>0.417652815580368</v>
+        <v>0.5163030624389648</v>
       </c>
       <c r="W155" t="n">
-        <v>0.01044509653002024</v>
+        <v>1.260964563698508e-05</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5411078929901123</v>
       </c>
       <c r="V156" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.399058997631073</v>
       </c>
       <c r="W156" t="n">
-        <v>0.001296709175221622</v>
+        <v>0.02017788775265217</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.534365177154541</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.8564643263816833</v>
       </c>
       <c r="W157" t="n">
-        <v>0.000937459000851959</v>
+        <v>0.1037478595972061</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5194699764251709</v>
       </c>
       <c r="V158" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.8840131759643555</v>
       </c>
       <c r="W158" t="n">
-        <v>0.02815298177301884</v>
+        <v>0.1328917443752289</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5143251419067383</v>
       </c>
       <c r="V159" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.3990579843521118</v>
       </c>
       <c r="W159" t="n">
-        <v>0.003829612862318754</v>
+        <v>0.01328651793301105</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5204489231109619</v>
       </c>
       <c r="V160" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.8799096345901489</v>
       </c>
       <c r="W160" t="n">
-        <v>0.01057145185768604</v>
+        <v>0.1292120069265366</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5761349201202393</v>
       </c>
       <c r="V161" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.889159083366394</v>
       </c>
       <c r="W161" t="n">
-        <v>0.005127424839884043</v>
+        <v>0.09798412770032883</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3901698589324951</v>
       </c>
       <c r="V162" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.8693001866340637</v>
       </c>
       <c r="W162" t="n">
-        <v>0.01854000426828861</v>
+        <v>0.2295658737421036</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3901560306549072</v>
       </c>
       <c r="V163" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.4017488658428192</v>
       </c>
       <c r="W163" t="n">
-        <v>0.005427633412182331</v>
+        <v>0.0001343938347417861</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3911230564117432</v>
       </c>
       <c r="V164" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.8754245638847351</v>
       </c>
       <c r="W164" t="n">
-        <v>0.0001632014900678769</v>
+        <v>0.2345479428768158</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3886470794677734</v>
       </c>
       <c r="V165" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.4004646837711334</v>
       </c>
       <c r="W165" t="n">
-        <v>0.005656733177602291</v>
+        <v>0.0001396557781845331</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.390347957611084</v>
       </c>
       <c r="V166" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.5251628160476685</v>
       </c>
       <c r="W166" t="n">
-        <v>0.0007459475309588015</v>
+        <v>0.01817504689097404</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3928561210632324</v>
       </c>
       <c r="V167" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.3999378681182861</v>
       </c>
       <c r="W167" t="n">
-        <v>0.0002135555259883404</v>
+        <v>5.015114220441319e-05</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3899259567260742</v>
       </c>
       <c r="V168" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.8878164887428284</v>
       </c>
       <c r="W168" t="n">
-        <v>0.1719270795583725</v>
+        <v>0.2478949874639511</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3937020301818848</v>
       </c>
       <c r="V169" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.8730435371398926</v>
       </c>
       <c r="W169" t="n">
-        <v>0.001779574900865555</v>
+        <v>0.2297682762145996</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.394974946975708</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.4008358418941498</v>
       </c>
       <c r="W170" t="n">
-        <v>0.09256712347269058</v>
+        <v>3.435009057284333e-05</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.389523983001709</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.3990233242511749</v>
       </c>
       <c r="W171" t="n">
-        <v>0.01335996761918068</v>
+        <v>9.02374813449569e-05</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3925371170043945</v>
       </c>
       <c r="V172" t="n">
-        <v>0.975181519985199</v>
+        <v>0.5204104781150818</v>
       </c>
       <c r="W172" t="n">
-        <v>0.3394744992256165</v>
+        <v>0.01635159738361835</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3911850452423096</v>
       </c>
       <c r="V173" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.4004553854465485</v>
       </c>
       <c r="W173" t="n">
-        <v>0.03423113375902176</v>
+        <v>8.593920938437805e-05</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3924310207366943</v>
       </c>
       <c r="V174" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.5181710720062256</v>
       </c>
       <c r="W174" t="n">
-        <v>0.09965851157903671</v>
+        <v>0.01581056043505669</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3935651779174805</v>
       </c>
       <c r="V175" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.8754318356513977</v>
       </c>
       <c r="W175" t="n">
-        <v>0.009470188990235329</v>
+        <v>0.2321954816579819</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3920648097991943</v>
       </c>
       <c r="V176" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.3990511894226074</v>
       </c>
       <c r="W176" t="n">
-        <v>0.0003986913943663239</v>
+        <v>4.880949927610345e-05</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4027659893035889</v>
       </c>
       <c r="V177" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.8876764178276062</v>
       </c>
       <c r="W177" t="n">
-        <v>0.002706069499254227</v>
+        <v>0.2351381182670593</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3918790817260742</v>
       </c>
       <c r="V178" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.5246874690055847</v>
       </c>
       <c r="W178" t="n">
-        <v>0.1956353783607483</v>
+        <v>0.01763806864619255</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3914790153503418</v>
       </c>
       <c r="V179" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.528784453868866</v>
       </c>
       <c r="W179" t="n">
-        <v>0.0692802220582962</v>
+        <v>0.01885278336703777</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4441111087799072</v>
       </c>
       <c r="V180" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.5271846055984497</v>
       </c>
       <c r="W180" t="n">
-        <v>0.1295080631971359</v>
+        <v>0.006901205983012915</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4043080806732178</v>
       </c>
       <c r="V181" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.8880513906478882</v>
       </c>
       <c r="W181" t="n">
-        <v>0.0795089453458786</v>
+        <v>0.2340075969696045</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8708980083465576</v>
       </c>
       <c r="V182" t="n">
-        <v>0.652911365032196</v>
+        <v>0.8775850534439087</v>
       </c>
       <c r="W182" t="n">
-        <v>0.04751817509531975</v>
+        <v>4.471657302929088e-05</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9080779552459717</v>
       </c>
       <c r="V183" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.5258656740188599</v>
       </c>
       <c r="W183" t="n">
-        <v>0.06574129313230515</v>
+        <v>0.1460862308740616</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8915300369262695</v>
       </c>
       <c r="V184" t="n">
-        <v>0.699232816696167</v>
+        <v>0.399880975484848</v>
       </c>
       <c r="W184" t="n">
-        <v>0.03697822242975235</v>
+        <v>0.2417187988758087</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8842980861663818</v>
       </c>
       <c r="V185" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.8762131929397583</v>
       </c>
       <c r="W185" t="n">
-        <v>0.09503588825464249</v>
+        <v>6.536550063174218e-05</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8623919486999512</v>
       </c>
       <c r="V186" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.5224871039390564</v>
       </c>
       <c r="W186" t="n">
-        <v>0.001069995807483792</v>
+        <v>0.1155353039503098</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.867523193359375</v>
       </c>
       <c r="V187" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.5290093421936035</v>
       </c>
       <c r="W187" t="n">
-        <v>0.1422291547060013</v>
+        <v>0.1145916283130646</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.895380973815918</v>
       </c>
       <c r="V188" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.5320678353309631</v>
       </c>
       <c r="W188" t="n">
-        <v>0.03847358375787735</v>
+        <v>0.1319964379072189</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8954479694366455</v>
       </c>
       <c r="V189" t="n">
-        <v>0.653493344783783</v>
+        <v>0.4003452062606812</v>
       </c>
       <c r="W189" t="n">
-        <v>0.05854203924536705</v>
+        <v>0.2451267391443253</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8653080463409424</v>
       </c>
       <c r="V190" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.4010092318058014</v>
       </c>
       <c r="W190" t="n">
-        <v>0.004207876976579428</v>
+        <v>0.2155733853578568</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8650147914886475</v>
       </c>
       <c r="V191" t="n">
-        <v>0.372467577457428</v>
+        <v>0.871726930141449</v>
       </c>
       <c r="W191" t="n">
-        <v>0.242602750658989</v>
+        <v>4.505280594457872e-05</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.9160969257354736</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.5162798166275024</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1818213611841202</v>
+        <v>0.1598537266254425</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8731458187103271</v>
       </c>
       <c r="V193" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.39903524518013</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1206458956003189</v>
+        <v>0.2247808426618576</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8641760349273682</v>
       </c>
       <c r="V194" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.3990476727485657</v>
       </c>
       <c r="W194" t="n">
-        <v>0.01242135837674141</v>
+        <v>0.2163443863391876</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8670120239257812</v>
       </c>
       <c r="V195" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.8634721636772156</v>
       </c>
       <c r="W195" t="n">
-        <v>0.2382480651140213</v>
+        <v>1.253061054740101e-05</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.9181110858917236</v>
       </c>
       <c r="V196" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.3998768031597137</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1168749406933784</v>
+        <v>0.2685667276382446</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.860637903213501</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.8847296833992004</v>
       </c>
       <c r="W197" t="n">
-        <v>0.0775110125541687</v>
+        <v>0.00058041384909302</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8655040264129639</v>
       </c>
       <c r="V198" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.5277867913246155</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2005944848060608</v>
+        <v>0.1140529289841652</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8663921356201172</v>
       </c>
       <c r="V199" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.4001589119434357</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1639813780784607</v>
+        <v>0.2173734158277512</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.9163141250610352</v>
       </c>
       <c r="V200" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.3998801410198212</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1534702926874161</v>
+        <v>0.2667040228843689</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8810501098632812</v>
       </c>
       <c r="V201" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.5235784649848938</v>
       </c>
       <c r="W201" t="n">
-        <v>0.05206074938178062</v>
+        <v>0.1277859807014465</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5188970565795898</v>
       </c>
       <c r="V202" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.5228104591369629</v>
       </c>
       <c r="W202" t="n">
-        <v>0.01968900114297867</v>
+        <v>1.531471934868023e-05</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5243270397186279</v>
       </c>
       <c r="V203" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.522129237651825</v>
       </c>
       <c r="W203" t="n">
-        <v>0.07623077183961868</v>
+        <v>4.830334091820987e-06</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5216288566589355</v>
       </c>
       <c r="V204" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.5164770483970642</v>
       </c>
       <c r="W204" t="n">
-        <v>0.0174690093845129</v>
+        <v>2.654112904565409e-05</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5708370208740234</v>
       </c>
       <c r="V205" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.873323380947113</v>
       </c>
       <c r="W205" t="n">
-        <v>0.002147018909454346</v>
+        <v>0.0914979949593544</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5193920135498047</v>
       </c>
       <c r="V206" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.5284481644630432</v>
       </c>
       <c r="W206" t="n">
-        <v>0.01794196292757988</v>
+        <v>8.201386663131416e-05</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5160720348358154</v>
       </c>
       <c r="V207" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.4010396003723145</v>
       </c>
       <c r="W207" t="n">
-        <v>0.02104168757796288</v>
+        <v>0.01323246117681265</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5146119594573975</v>
       </c>
       <c r="V208" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.8684879541397095</v>
       </c>
       <c r="W208" t="n">
-        <v>7.702984294155613e-05</v>
+        <v>0.125228226184845</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5180521011352539</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.5239751935005188</v>
       </c>
       <c r="W209" t="n">
-        <v>0.003202437190338969</v>
+        <v>3.508302324917167e-05</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5169191360473633</v>
       </c>
       <c r="V210" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.4000239372253418</v>
       </c>
       <c r="W210" t="n">
-        <v>5.880764729226939e-05</v>
+        <v>0.01366448774933815</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.523500919342041</v>
       </c>
       <c r="V211" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.4001774489879608</v>
       </c>
       <c r="W211" t="n">
-        <v>0.01723414286971092</v>
+        <v>0.01520867832005024</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5210540294647217</v>
       </c>
       <c r="V212" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.4010413587093353</v>
       </c>
       <c r="W212" t="n">
-        <v>0.01762831583619118</v>
+        <v>0.01440304145216942</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5213871002197266</v>
       </c>
       <c r="V213" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.8639653325080872</v>
       </c>
       <c r="W213" t="n">
-        <v>0.0002652614784892648</v>
+        <v>0.117359846830368</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5156271457672119</v>
       </c>
       <c r="V214" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.8725297451019287</v>
       </c>
       <c r="W214" t="n">
-        <v>0.03370776027441025</v>
+        <v>0.1273794621229172</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5241148471832275</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.4000197350978851</v>
       </c>
       <c r="W215" t="n">
-        <v>0.003967794124037027</v>
+        <v>0.01539959665387869</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5735630989074707</v>
       </c>
       <c r="V216" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.8813068270683289</v>
       </c>
       <c r="W216" t="n">
-        <v>0.01211575698107481</v>
+        <v>0.09470620006322861</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5200839042663574</v>
       </c>
       <c r="V217" t="n">
-        <v>0.801636278629303</v>
+        <v>0.8688690066337585</v>
       </c>
       <c r="W217" t="n">
-        <v>0.07927174121141434</v>
+        <v>0.1216510459780693</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5200119018554688</v>
       </c>
       <c r="V218" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.8816401362419128</v>
       </c>
       <c r="W218" t="n">
-        <v>0.01048009749501944</v>
+        <v>0.130774974822998</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5200319290161133</v>
       </c>
       <c r="V219" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.8885076642036438</v>
       </c>
       <c r="W219" t="n">
-        <v>0.01771005056798458</v>
+        <v>0.1357743740081787</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5225260257720947</v>
       </c>
       <c r="V220" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.8750008344650269</v>
       </c>
       <c r="W220" t="n">
-        <v>0.03122124634683132</v>
+        <v>0.1242384910583496</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5201749801635742</v>
       </c>
       <c r="V221" t="n">
-        <v>0.802417516708374</v>
+        <v>0.3993653655052185</v>
       </c>
       <c r="W221" t="n">
-        <v>0.07966084778308868</v>
+        <v>0.01459496282041073</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3918840885162354</v>
       </c>
       <c r="V222" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.867729127407074</v>
       </c>
       <c r="W222" t="n">
-        <v>0.0123615637421608</v>
+        <v>0.2264284938573837</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3914821147918701</v>
       </c>
       <c r="V223" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.5269797444343567</v>
       </c>
       <c r="W223" t="n">
-        <v>0.06884580105543137</v>
+        <v>0.01835960708558559</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.393373966217041</v>
       </c>
       <c r="V224" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.3990643620491028</v>
       </c>
       <c r="W224" t="n">
-        <v>0.09623286128044128</v>
+        <v>3.23806052620057e-05</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3867371082305908</v>
       </c>
       <c r="V225" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.4004381597042084</v>
       </c>
       <c r="W225" t="n">
-        <v>0.04325805231928825</v>
+        <v>0.0001877188042271882</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3925538063049316</v>
       </c>
       <c r="V226" t="n">
-        <v>0.655465304851532</v>
+        <v>0.5211728811264038</v>
       </c>
       <c r="W226" t="n">
-        <v>0.06912245601415634</v>
+        <v>0.01654286682605743</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3933191299438477</v>
       </c>
       <c r="V227" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.5135156512260437</v>
       </c>
       <c r="W227" t="n">
-        <v>0.03579595685005188</v>
+        <v>0.01444720383733511</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3964509963989258</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.5224981904029846</v>
       </c>
       <c r="W228" t="n">
-        <v>0.004232790786772966</v>
+        <v>0.01588789559900761</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3955240249633789</v>
       </c>
       <c r="V229" t="n">
-        <v>0.417663037776947</v>
+        <v>0.8667393326759338</v>
       </c>
       <c r="W229" t="n">
-        <v>0.0004901358624920249</v>
+        <v>0.2220438718795776</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3917667865753174</v>
       </c>
       <c r="V230" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.3990437686443329</v>
       </c>
       <c r="W230" t="n">
-        <v>0.001681790105067194</v>
+        <v>5.295446680975147e-05</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3931410312652588</v>
       </c>
       <c r="V231" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.8660114407539368</v>
       </c>
       <c r="W231" t="n">
-        <v>0.06821408122777939</v>
+        <v>0.2236064225435257</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3918888568878174</v>
       </c>
       <c r="V232" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.4969061613082886</v>
       </c>
       <c r="W232" t="n">
-        <v>0.1995880007743835</v>
+        <v>0.01102863438427448</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4022190570831299</v>
       </c>
       <c r="V233" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.5157621502876282</v>
       </c>
       <c r="W233" t="n">
-        <v>0.06310372799634933</v>
+        <v>0.01289203390479088</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.4511189460754395</v>
       </c>
       <c r="V234" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.5158969163894653</v>
       </c>
       <c r="W234" t="n">
-        <v>0.1232697665691376</v>
+        <v>0.004196185618638992</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3974401950836182</v>
       </c>
       <c r="V235" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.5139206647872925</v>
       </c>
       <c r="W235" t="n">
-        <v>0.004406845662742853</v>
+        <v>0.01356770005077124</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3959310054779053</v>
       </c>
       <c r="V236" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.4004761278629303</v>
       </c>
       <c r="W236" t="n">
-        <v>5.087723911856301e-05</v>
+        <v>2.065813714580145e-05</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.401885986328125</v>
       </c>
       <c r="V237" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.5285791754722595</v>
       </c>
       <c r="W237" t="n">
-        <v>0.002614843426272273</v>
+        <v>0.0160511638969183</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3871839046478271</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.5162476897239685</v>
       </c>
       <c r="W238" t="n">
-        <v>0.01371562108397484</v>
+        <v>0.01665746048092842</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3878560066223145</v>
       </c>
       <c r="V239" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.5242162346839905</v>
       </c>
       <c r="W239" t="n">
-        <v>0.03545213490724564</v>
+        <v>0.01859411224722862</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.4173870086669922</v>
       </c>
       <c r="V240" t="n">
-        <v>0.417630136013031</v>
+        <v>0.8827378153800964</v>
       </c>
       <c r="W240" t="n">
-        <v>5.911090639187933e-08</v>
+        <v>0.2165513783693314</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3921442031860352</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.523571789264679</v>
       </c>
       <c r="W241" t="n">
-        <v>0.0006463072495535016</v>
+        <v>0.01727320998907089</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8906509876251221</v>
       </c>
       <c r="V242" t="n">
-        <v>0.35074183344841</v>
+        <v>0.5229660272598267</v>
       </c>
       <c r="W242" t="n">
-        <v>0.2915018498897552</v>
+        <v>0.1351922303438187</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9187779426574707</v>
       </c>
       <c r="V243" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.866797149181366</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1430160701274872</v>
+        <v>0.002702002879232168</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.888840913772583</v>
       </c>
       <c r="V244" t="n">
-        <v>0.590633749961853</v>
+        <v>0.5242322087287903</v>
       </c>
       <c r="W244" t="n">
-        <v>0.08892751485109329</v>
+        <v>0.1329395025968552</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>1.241029977798462</v>
       </c>
       <c r="V245" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.5213087201118469</v>
       </c>
       <c r="W245" t="n">
-        <v>0.5634157061576843</v>
+        <v>0.5179986953735352</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8686280250549316</v>
       </c>
       <c r="V246" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.8767940402030945</v>
       </c>
       <c r="W246" t="n">
-        <v>0.2392729073762894</v>
+        <v>6.668380228802562e-05</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8745489120483398</v>
       </c>
       <c r="V247" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.5225003957748413</v>
       </c>
       <c r="W247" t="n">
-        <v>0.04880057647824287</v>
+        <v>0.1239381581544876</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.9256248474121094</v>
       </c>
       <c r="V248" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.5230114459991455</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1604181528091431</v>
+        <v>0.1620975583791733</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8719718456268311</v>
       </c>
       <c r="V249" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.5155758261680603</v>
       </c>
       <c r="W249" t="n">
-        <v>0.2498400807380676</v>
+        <v>0.1270181238651276</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8712148666381836</v>
       </c>
       <c r="V250" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.8670282959938049</v>
       </c>
       <c r="W250" t="n">
-        <v>0.2708655893802643</v>
+        <v>1.752737443894148e-05</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8764920234680176</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.4015213549137115</v>
       </c>
       <c r="W251" t="n">
-        <v>0.2105499058961868</v>
+        <v>0.2255971431732178</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.9451370239257812</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.5217216014862061</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1940999329090118</v>
+        <v>0.179280623793602</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8735978603363037</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.5262563824653625</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1362633556127548</v>
+        <v>0.1206461042165756</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8669819831848145</v>
       </c>
       <c r="V254" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.3999292552471161</v>
       </c>
       <c r="W254" t="n">
-        <v>0.2018972039222717</v>
+        <v>0.2181382477283478</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8662941455841064</v>
       </c>
       <c r="V255" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.5312314033508301</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1412275284528732</v>
+        <v>0.1122670397162437</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9190099239349365</v>
       </c>
       <c r="V256" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.5285208225250244</v>
       </c>
       <c r="W256" t="n">
-        <v>0.07195761054754257</v>
+        <v>0.152481734752655</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8669869899749756</v>
       </c>
       <c r="V257" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.8643166422843933</v>
       </c>
       <c r="W257" t="n">
-        <v>0.02670062892138958</v>
+        <v>7.130756785045378e-06</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8608980178833008</v>
       </c>
       <c r="V258" t="n">
-        <v>0.405481219291687</v>
+        <v>0.8750633001327515</v>
       </c>
       <c r="W258" t="n">
-        <v>0.2074044644832611</v>
+        <v>0.0002006552240345627</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8737180233001709</v>
       </c>
       <c r="V259" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.5276171565055847</v>
       </c>
       <c r="W259" t="n">
-        <v>0.2735050618648529</v>
+        <v>0.1197858080267906</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.9193201065063477</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.503281831741333</v>
       </c>
       <c r="W260" t="n">
-        <v>0.2516817152500153</v>
+        <v>0.1730878502130508</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8791558742523193</v>
       </c>
       <c r="V261" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.4000356495380402</v>
       </c>
       <c r="W261" t="n">
-        <v>0.009297504089772701</v>
+        <v>0.2295561879873276</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5433988571166992</v>
       </c>
       <c r="V262" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.8660867810249329</v>
       </c>
       <c r="W262" t="n">
-        <v>0.06609979271888733</v>
+        <v>0.1041274964809418</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5591669082641602</v>
       </c>
       <c r="V263" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.3990441858768463</v>
       </c>
       <c r="W263" t="n">
-        <v>0.008876495063304901</v>
+        <v>0.02563928626477718</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5371689796447754</v>
       </c>
       <c r="V264" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.5159024000167847</v>
       </c>
       <c r="W264" t="n">
-        <v>0.03447504714131355</v>
+        <v>0.0004522674134932458</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5291810035705566</v>
       </c>
       <c r="V265" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.5162726640701294</v>
       </c>
       <c r="W265" t="n">
-        <v>0.03206322342157364</v>
+        <v>0.0001666252355789766</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5217339992523193</v>
       </c>
       <c r="V266" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.8746323585510254</v>
       </c>
       <c r="W266" t="n">
-        <v>0.2064098715782166</v>
+        <v>0.1245372518897057</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5201818943023682</v>
       </c>
       <c r="V267" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.5222486257553101</v>
       </c>
       <c r="W267" t="n">
-        <v>0.02759894169867039</v>
+        <v>4.271379111742135e-06</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5217471122741699</v>
       </c>
       <c r="V268" t="n">
-        <v>0.653571605682373</v>
+        <v>0.8749772906303406</v>
       </c>
       <c r="W268" t="n">
-        <v>0.01737769693136215</v>
+        <v>0.1247715577483177</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5245940685272217</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.8754569292068481</v>
       </c>
       <c r="W269" t="n">
-        <v>0.01146009843796492</v>
+        <v>0.1231047436594963</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5742490291595459</v>
       </c>
       <c r="V270" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.3999410569667816</v>
       </c>
       <c r="W270" t="n">
-        <v>0.05162778869271278</v>
+        <v>0.0303832683712244</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5239529609680176</v>
       </c>
       <c r="V271" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.5332201719284058</v>
       </c>
       <c r="W271" t="n">
-        <v>0.000351055758073926</v>
+        <v>8.588119817432016e-05</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5398259162902832</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.527616024017334</v>
       </c>
       <c r="W272" t="n">
-        <v>0.002412382978945971</v>
+        <v>0.000149081475683488</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5218660831451416</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.5170733332633972</v>
       </c>
       <c r="W273" t="n">
-        <v>0.00368879665620625</v>
+        <v>2.297045102750417e-05</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5298349857330322</v>
       </c>
       <c r="V274" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.867120087146759</v>
       </c>
       <c r="W274" t="n">
-        <v>0.07422170788049698</v>
+        <v>0.1137612387537956</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5179338455200195</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.5171926021575928</v>
       </c>
       <c r="W275" t="n">
-        <v>0.004155188798904419</v>
+        <v>5.494417223417258e-07</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5214970111846924</v>
       </c>
       <c r="V276" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.8714223504066467</v>
       </c>
       <c r="W276" t="n">
-        <v>0.09495843946933746</v>
+        <v>0.122447744011879</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5263538360595703</v>
       </c>
       <c r="V277" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.8769112229347229</v>
       </c>
       <c r="W277" t="n">
-        <v>0.01582660339772701</v>
+        <v>0.12289047986269</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5206100940704346</v>
       </c>
       <c r="V278" t="n">
-        <v>0.97564297914505</v>
+        <v>0.5233953595161438</v>
       </c>
       <c r="W278" t="n">
-        <v>0.207054927945137</v>
+        <v>7.757703315292019e-06</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5247068405151367</v>
       </c>
       <c r="V279" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.8739035725593567</v>
       </c>
       <c r="W279" t="n">
-        <v>0.03026105463504791</v>
+        <v>0.1219383552670479</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5208921432495117</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.8656643629074097</v>
       </c>
       <c r="W280" t="n">
-        <v>0.005446822382509708</v>
+        <v>0.1188678815960884</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5698721408843994</v>
       </c>
       <c r="V281" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.5195425748825073</v>
       </c>
       <c r="W281" t="n">
-        <v>0.1647332310676575</v>
+        <v>0.002533065155148506</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4098048210144043</v>
       </c>
       <c r="V282" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.5322170257568359</v>
       </c>
       <c r="W282" t="n">
-        <v>0.3196872174739838</v>
+        <v>0.01498474832624197</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3982181549072266</v>
       </c>
       <c r="V283" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.8759519457817078</v>
       </c>
       <c r="W283" t="n">
-        <v>0.01601661182940006</v>
+        <v>0.2282295823097229</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3965189456939697</v>
       </c>
       <c r="V284" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.5169601440429688</v>
       </c>
       <c r="W284" t="n">
-        <v>0.1914628893136978</v>
+        <v>0.0145060820505023</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3984930515289307</v>
       </c>
       <c r="V285" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.3990402817726135</v>
       </c>
       <c r="W285" t="n">
-        <v>0.0003663785755634308</v>
+        <v>2.994609360484901e-07</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3984510898590088</v>
       </c>
       <c r="V286" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.3999468386173248</v>
       </c>
       <c r="W286" t="n">
-        <v>0.3332557678222656</v>
+        <v>2.237264425275498e-06</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4460391998291016</v>
       </c>
       <c r="V287" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.5225610733032227</v>
       </c>
       <c r="W287" t="n">
-        <v>0.06411240994930267</v>
+        <v>0.005855597089976072</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4014420509338379</v>
       </c>
       <c r="V288" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.5279338955879211</v>
       </c>
       <c r="W288" t="n">
-        <v>0.0002630276139825583</v>
+        <v>0.01600018702447414</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.3982100486755371</v>
       </c>
       <c r="V289" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.5165078043937683</v>
       </c>
       <c r="W289" t="n">
-        <v>0.03567647561430931</v>
+        <v>0.01399435941129923</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.4037339687347412</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.4004806578159332</v>
       </c>
       <c r="W290" t="n">
-        <v>0.03502164408564568</v>
+        <v>1.058403177012224e-05</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3960211277008057</v>
       </c>
       <c r="V291" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.4015243649482727</v>
       </c>
       <c r="W291" t="n">
-        <v>0.002048126189038157</v>
+        <v>3.028562059625983e-05</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.3938968181610107</v>
       </c>
       <c r="V292" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.5158281922340393</v>
       </c>
       <c r="W292" t="n">
-        <v>0.002187954727560282</v>
+        <v>0.01486726012080908</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4509978294372559</v>
       </c>
       <c r="V293" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.5146265029907227</v>
       </c>
       <c r="W293" t="n">
-        <v>0.05848728120326996</v>
+        <v>0.004048608243465424</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3914289474487305</v>
       </c>
       <c r="V294" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.4016927778720856</v>
       </c>
       <c r="W294" t="n">
-        <v>0.00068236532388255</v>
+        <v>0.0001053462183335796</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3921470642089844</v>
       </c>
       <c r="V295" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.5160344243049622</v>
       </c>
       <c r="W295" t="n">
-        <v>0.03380954265594482</v>
+        <v>0.01534807775169611</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3929870128631592</v>
       </c>
       <c r="V296" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.5242717266082764</v>
       </c>
       <c r="W296" t="n">
-        <v>0.1694628894329071</v>
+        <v>0.01723567582666874</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3941469192504883</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.4000481367111206</v>
       </c>
       <c r="W297" t="n">
-        <v>0.0005523940781131387</v>
+        <v>3.482436659396626e-05</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3950181007385254</v>
       </c>
       <c r="V298" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.5210745334625244</v>
       </c>
       <c r="W298" t="n">
-        <v>0.002302230102941394</v>
+        <v>0.01589022390544415</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3963429927825928</v>
       </c>
       <c r="V299" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.3990655839443207</v>
       </c>
       <c r="W299" t="n">
-        <v>0.01675065793097019</v>
+        <v>7.412502782244701e-06</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4352798461914062</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.882535994052887</v>
       </c>
       <c r="W300" t="n">
-        <v>0.0003147079842165112</v>
+        <v>0.2000380605459213</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3999040126800537</v>
       </c>
       <c r="V301" t="n">
-        <v>0.490833193063736</v>
+        <v>0.8729584813117981</v>
       </c>
       <c r="W301" t="n">
-        <v>0.008268116042017937</v>
+        <v>0.2237805277109146</v>
       </c>
     </row>
     <row r="302" spans="1:23">
